--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD38B70-1E1C-4E7B-8DB6-2DBF3DF5D5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD34CF3-0E95-46F8-9A2C-FB92AD85D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17850" yWindow="1110" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Research Associate</t>
   </si>
   <si>
-    <t>Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust</t>
-  </si>
-  <si>
     <t>Supervisor: Prof Judith Allen.</t>
   </si>
   <si>
@@ -72,18 +69,12 @@
     <t>Trinity College Dublin</t>
   </si>
   <si>
-    <t xml:space="preserve">I took on the teaching duties for a senior professor for 1 year including undergraduate practicle supervision, undergraduate and masters level teaching , examinations and corrections. </t>
-  </si>
-  <si>
     <t>Post-doctoral Researcher</t>
   </si>
   <si>
     <t>Supervisor: Prof Kingston HG Mills.</t>
   </si>
   <si>
-    <t>Research projects:  1. IP-protected translational project identifying and testing novel helminth-derived proteins as potential therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
-  </si>
-  <si>
     <t>2013-2016</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t xml:space="preserve">Paid internship </t>
   </si>
   <si>
-    <t>Reviewed 5  years of pharmaceutical adversitments for assessment of complience. Created and managed database for reporting issues and producing analysis documents. Liasing with marketing and scientific teams to address and solve issues.</t>
-  </si>
-  <si>
     <t>Major Title</t>
   </si>
   <si>
@@ -126,7 +114,19 @@
     <t>Supervisor: Prof Mark Little</t>
   </si>
   <si>
-    <t>Hired to lead single cell RNA-sequencing aspect of the Science foundation Ireland COVID strategic partnership.</t>
+    <t xml:space="preserve">Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust. Project manegment, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performed the teaching duties for a senior professor on sabbatical for 1 year. Duties included undergraduate practicle supervision, undergraduate and Msc teaching via lectures and tutorials, setting examinations and corrections with assciated administration duties. </t>
+  </si>
+  <si>
+    <t>Reviewed pharmaceutical adversitments for assessment of complience. Created and managed database for reporting issues and producing analysis documents. Liasing with marketing and scientific teams to address and solve issues.</t>
+  </si>
+  <si>
+    <t>Research projects:  1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
+  </si>
+  <si>
+    <t>Lead single cell RNA-sequencing  for COVID19 strategic partnership. Laboratory manegment of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datsets (RedCap) with biobank datasets to stratify patients and stitch results with new analyates for future analysis using machine learning. Manegment of research assistant and PhD students in THKC.</t>
   </si>
 </sst>
 </file>
@@ -195,15 +195,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,16 +492,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="117.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -509,124 +516,124 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4">
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
       </c>
       <c r="C8">
         <v>2007</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD34CF3-0E95-46F8-9A2C-FB92AD85D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92108014-D9D7-441E-A8B5-B79509F49F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17850" yWindow="1110" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26640" yWindow="1860" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Supervisor: Prof Mark Little</t>
   </si>
   <si>
-    <t xml:space="preserve">Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust. Project manegment, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Performed the teaching duties for a senior professor on sabbatical for 1 year. Duties included undergraduate practicle supervision, undergraduate and Msc teaching via lectures and tutorials, setting examinations and corrections with assciated administration duties. </t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Lead single cell RNA-sequencing  for COVID19 strategic partnership. Laboratory manegment of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datsets (RedCap) with biobank datasets to stratify patients and stitch results with new analyates for future analysis using machine learning. Manegment of research assistant and PhD students in THKC.</t>
+  </si>
+  <si>
+    <t>Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust. See recent preprint for outputs.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92108014-D9D7-441E-A8B5-B79509F49F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15666544-B15B-4EFA-9697-48E2FB6E28E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="1860" windowWidth="20805" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,26 +114,26 @@
     <t>Supervisor: Prof Mark Little</t>
   </si>
   <si>
-    <t xml:space="preserve">Performed the teaching duties for a senior professor on sabbatical for 1 year. Duties included undergraduate practicle supervision, undergraduate and Msc teaching via lectures and tutorials, setting examinations and corrections with assciated administration duties. </t>
-  </si>
-  <si>
-    <t>Reviewed pharmaceutical adversitments for assessment of complience. Created and managed database for reporting issues and producing analysis documents. Liasing with marketing and scientific teams to address and solve issues.</t>
-  </si>
-  <si>
     <t>Research projects:  1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
   </si>
   <si>
-    <t>Lead single cell RNA-sequencing  for COVID19 strategic partnership. Laboratory manegment of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datsets (RedCap) with biobank datasets to stratify patients and stitch results with new analyates for future analysis using machine learning. Manegment of research assistant and PhD students in THKC.</t>
-  </si>
-  <si>
     <t>Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust. See recent preprint for outputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performed the teaching duties for a senior professor on sabbatical for 1 year. Duties included undergraduate practical supervision, undergraduate and MSc teaching via lectures and tutorials, setting examinations and corrections with associated administration duties. </t>
+  </si>
+  <si>
+    <t>Reviewed pharmaceutical advertisements for assessment of compliance. Created and managed database for reporting issues and producing analysis documents. Liaising with marketing and scientific teams to address and solve issues.</t>
+  </si>
+  <si>
+    <t>Single cell RNA-sequencing lead on COVID-19 strategic partnership. Laboratory management of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datasets (RedCap) with biobank datasets to stratify patients and combine with biomarker results for analysis using machine learning.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,24 +155,38 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,19 +209,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +584,8 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -581,8 +601,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -598,8 +618,8 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,8 +635,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,9 +652,12 @@
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15666544-B15B-4EFA-9697-48E2FB6E28E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6F67C-9429-4A4A-A89C-6BC0B8DB3D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16095" yWindow="3585" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -511,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,23 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>2007</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E9" s="8"/>
     </row>
@@ -663,4 +648,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FEEE41-54A9-472F-81CA-B8F0C9A852B7}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>2007</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6F67C-9429-4A4A-A89C-6BC0B8DB3D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94F24E-178B-1F44-975F-7398D73DD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="3585" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="2560" windowWidth="23760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Supervisor: Prof Mark Little</t>
   </si>
   <si>
-    <t>Research projects:  1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
-  </si>
-  <si>
     <t>Origin, heterogeneity, proliferation and effector function of macrophages during helminth infection and type 2 immune responses. Funding: Medical Research Council/Wellcome Trust. See recent preprint for outputs.</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>Single cell RNA-sequencing lead on COVID-19 strategic partnership. Laboratory management of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datasets (RedCap) with biobank datasets to stratify patients and combine with biomarker results for analysis using machine learning.</t>
+  </si>
+  <si>
+    <t>2021-2023</t>
+  </si>
+  <si>
+    <t>Research projects: 1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
   </si>
 </sst>
 </file>
@@ -513,18 +516,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="117.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -541,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -558,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -572,24 +576,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>2021</v>
+      <c r="C4" t="s">
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -603,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -620,10 +624,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -637,11 +641,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="E9" s="8"/>
     </row>
   </sheetData>
@@ -658,9 +662,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -674,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94F24E-178B-1F44-975F-7398D73DD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340F28-7AE9-9440-84F8-67A174789290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2560" windowWidth="23760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="2560" windowWidth="27020" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>what</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Research projects: 1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
+  </si>
+  <si>
+    <t>Supervisor: Aideen Long</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>HEALED consortium - molecular biology and sequencing lead of tumour DNA and RNA-sequencing (with Aideen Long), since August 2023</t>
   </si>
 </sst>
 </file>
@@ -515,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,70 +590,86 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="E9" s="8"/>
     </row>

--- a/data/employment.xlsx
+++ b/data/employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340F28-7AE9-9440-84F8-67A174789290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB0DFD-730E-1B49-92E1-1FDF5C0D92D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2560" windowWidth="27020" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="760" windowWidth="27020" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>what</t>
   </si>
@@ -109,9 +109,6 @@
     <t>School of Biochemistry and Immunology</t>
   </si>
   <si>
-    <t>Research Fellow</t>
-  </si>
-  <si>
     <t>Supervisor: Prof Mark Little</t>
   </si>
   <si>
@@ -124,15 +121,9 @@
     <t>Reviewed pharmaceutical advertisements for assessment of compliance. Created and managed database for reporting issues and producing analysis documents. Liaising with marketing and scientific teams to address and solve issues.</t>
   </si>
   <si>
-    <t>Single cell RNA-sequencing lead on COVID-19 strategic partnership. Laboratory management of Trinity Kidney Health Centre (THKC). Clinical data analysis: incorporating data from clinical datasets (RedCap) with biobank datasets to stratify patients and combine with biomarker results for analysis using machine learning.</t>
-  </si>
-  <si>
     <t>2021-2023</t>
   </si>
   <si>
-    <t>Research projects: 1. IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease. 2. Role of mast cells in the alternative activation of macrophages via IL-33. 3. Circadian regulation of autoimmune disease</t>
-  </si>
-  <si>
     <t>Supervisor: Aideen Long</t>
   </si>
   <si>
@@ -140,13 +131,37 @@
   </si>
   <si>
     <t>HEALED consortium - molecular biology and sequencing lead of tumour DNA and RNA-sequencing (with Aideen Long), since August 2023</t>
+  </si>
+  <si>
+    <t>Snr Research Fellow</t>
+  </si>
+  <si>
+    <t>Research Fellow and subsequently Snr Research Fellow</t>
+  </si>
+  <si>
+    <t>Snr Research Fellow, PI</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>Transitioned to research independence on SFI-Pathways award.</t>
+  </si>
+  <si>
+    <t>Mentor: Prof Mark Little</t>
+  </si>
+  <si>
+    <t>Single cell RNA-sequencing lead on COVID-19 strategic partnership. Laboratory management of Trinity Kidney Health Centre (THKC). Clinical data analysis, biomarker research, machine learning.</t>
+  </si>
+  <si>
+    <t>For research projects see publications. I worked foremost on an IP-protected translational project identifying and testing novel helminth-derived proteins as therapeutics for inflammatory disease.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +209,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,9 +246,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,27 +592,27 @@
     </row>
     <row r="4" spans="1:5" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -615,63 +620,77 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="E9" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -703,7 +722,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
